--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.34978773213732</v>
+        <v>86.09341528672708</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.41446260423739</v>
+        <v>117.7968089686729</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.880871787297</v>
+        <v>106.5544468495931</v>
       </c>
       <c r="AD2" t="n">
-        <v>65349.78773213732</v>
+        <v>86093.41528672707</v>
       </c>
       <c r="AE2" t="n">
-        <v>89414.46260423739</v>
+        <v>117796.8089686729</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.618376573186672e-06</v>
+        <v>1.287924359187605e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.659722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>80880.871787297</v>
+        <v>106554.4468495931</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.49587563059888</v>
+        <v>71.99570068975117</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.14137004431282</v>
+        <v>98.50769390982701</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.11103578045805</v>
+        <v>89.10625785951434</v>
       </c>
       <c r="AD3" t="n">
-        <v>61495.87563059888</v>
+        <v>71995.70068975117</v>
       </c>
       <c r="AE3" t="n">
-        <v>84141.37004431282</v>
+        <v>98507.69390982701</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.065658227918209e-06</v>
+        <v>1.363539542161624e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>76111.03578045806</v>
+        <v>89106.25785951434</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.92919848420986</v>
+        <v>82.02499331735824</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.73426148947817</v>
+        <v>112.2302145440755</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.6473424982254</v>
+        <v>101.5191203841132</v>
       </c>
       <c r="AD2" t="n">
-        <v>61929.19848420986</v>
+        <v>82024.99331735824</v>
       </c>
       <c r="AE2" t="n">
-        <v>84734.26148947817</v>
+        <v>112230.2145440755</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.834622034628797e-06</v>
+        <v>1.356792798659906e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>76647.34249822539</v>
+        <v>101519.1203841132</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.74938150252896</v>
+        <v>81.84517633567734</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.48822796217713</v>
+        <v>111.9841810167744</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.42479006545965</v>
+        <v>101.2965679513474</v>
       </c>
       <c r="AD3" t="n">
-        <v>61749.38150252896</v>
+        <v>81845.17633567733</v>
       </c>
       <c r="AE3" t="n">
-        <v>84488.22796217713</v>
+        <v>111984.1810167744</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.874916446218078e-06</v>
+        <v>1.36377094862412e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.661111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>76424.79006545965</v>
+        <v>101296.5679513474</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.47690854445993</v>
+        <v>100.7076397698904</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.8485448948885</v>
+        <v>137.7926356406082</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0784381540768</v>
+        <v>124.6418998882842</v>
       </c>
       <c r="AD2" t="n">
-        <v>82476.90854445993</v>
+        <v>100707.6397698904</v>
       </c>
       <c r="AE2" t="n">
-        <v>112848.5448948885</v>
+        <v>137792.6356406081</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.304712643790074e-06</v>
+        <v>1.192987303139645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.709722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>102078.4381540768</v>
+        <v>124641.8998882842</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.10400879225405</v>
+        <v>84.60072907977744</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7606181845447</v>
+        <v>115.7544498476576</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.95328901047104</v>
+        <v>104.7070076166179</v>
       </c>
       <c r="AD2" t="n">
-        <v>75104.00879225406</v>
+        <v>84600.72907977743</v>
       </c>
       <c r="AE2" t="n">
-        <v>102760.6181845447</v>
+        <v>115754.4498476576</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.144576069020605e-06</v>
+        <v>1.301586597601903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.131944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>92953.28901047104</v>
+        <v>104707.0076166179</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4090280950077</v>
+        <v>120.9290766831215</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.4887943238736</v>
+        <v>165.4604977321119</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.9853023744113</v>
+        <v>149.6691800538721</v>
       </c>
       <c r="AD2" t="n">
-        <v>103409.0280950077</v>
+        <v>120929.0766831215</v>
       </c>
       <c r="AE2" t="n">
-        <v>141488.7943238736</v>
+        <v>165460.497732112</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411492863487206e-06</v>
+        <v>1.060478242690352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.488888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>127985.3023744113</v>
+        <v>149669.1800538721</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.74863792101762</v>
+        <v>72.0096852656052</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.48721056114881</v>
+        <v>98.5268282234664</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.42386976375755</v>
+        <v>89.12356602111517</v>
       </c>
       <c r="AD2" t="n">
-        <v>61748.63792101762</v>
+        <v>72009.68526560519</v>
       </c>
       <c r="AE2" t="n">
-        <v>84487.21056114881</v>
+        <v>98526.82822346639</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89750191269651e-06</v>
+        <v>1.358750362532573e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.630555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>76423.86976375755</v>
+        <v>89123.56602111517</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.55186336745633</v>
+        <v>71.8129107120439</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.21797493588576</v>
+        <v>98.25759259820335</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.18032960869498</v>
+        <v>88.88002586605258</v>
       </c>
       <c r="AD3" t="n">
-        <v>61551.86336745632</v>
+        <v>71812.9107120439</v>
       </c>
       <c r="AE3" t="n">
-        <v>84217.97493588577</v>
+        <v>98257.59259820335</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.939976878006722e-06</v>
+        <v>1.366058100492222e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76180.32960869497</v>
+        <v>88880.02586605257</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6249934994097</v>
+        <v>140.860033973803</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.1491700556114</v>
+        <v>192.730912788987</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.005810667902</v>
+        <v>174.3369449719956</v>
       </c>
       <c r="AD2" t="n">
-        <v>123624.9934994097</v>
+        <v>140860.033973803</v>
       </c>
       <c r="AE2" t="n">
-        <v>169149.1700556114</v>
+        <v>192730.912788987</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806684237356022e-06</v>
+        <v>9.635769433484874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.172222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>153005.810667902</v>
+        <v>174336.9449719956</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.74487825851322</v>
+        <v>82.28804089257125</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.85031054193139</v>
+        <v>112.5901278413217</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.65687739549752</v>
+        <v>101.8446840614118</v>
       </c>
       <c r="AD2" t="n">
-        <v>62744.87825851323</v>
+        <v>82288.04089257124</v>
       </c>
       <c r="AE2" t="n">
-        <v>85850.31054193139</v>
+        <v>112590.1278413217</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.598622517475725e-06</v>
+        <v>1.345772510853208e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.841666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77656.87739549752</v>
+        <v>101844.6840614118</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.63842730057636</v>
+        <v>82.18158993463437</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.70465964499745</v>
+        <v>112.4444769443878</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.52512721574458</v>
+        <v>101.7129338816589</v>
       </c>
       <c r="AD3" t="n">
-        <v>62638.42730057636</v>
+        <v>82181.58993463438</v>
       </c>
       <c r="AE3" t="n">
-        <v>85704.65964499745</v>
+        <v>112444.4769443878</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.631119849243357e-06</v>
+        <v>1.351528029786853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.830555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>77525.12721574458</v>
+        <v>101712.9338816589</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.99338352231852</v>
+        <v>81.91242605539792</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.82208229026241</v>
+        <v>112.0761950501443</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.72678180504008</v>
+        <v>101.379800294515</v>
       </c>
       <c r="AD2" t="n">
-        <v>61993.38352231852</v>
+        <v>81912.42605539791</v>
       </c>
       <c r="AE2" t="n">
-        <v>84822.08229026242</v>
+        <v>112076.1950501443</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.779237238254489e-06</v>
+        <v>1.356631046670967e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.719444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>76726.78180504008</v>
+        <v>101379.800294515</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.86314983467346</v>
+        <v>81.78219236775284</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.64389081332175</v>
+        <v>111.8980035732037</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.56559667256523</v>
+        <v>101.2186151620402</v>
       </c>
       <c r="AD3" t="n">
-        <v>61863.14983467346</v>
+        <v>81782.19236775284</v>
       </c>
       <c r="AE3" t="n">
-        <v>84643.89081332175</v>
+        <v>111898.0035732037</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.815191568054106e-06</v>
+        <v>1.362901167837673e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.706944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>76565.59667256524</v>
+        <v>101218.6151620402</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.46133208123246</v>
+        <v>72.8840982596533</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.46235015300157</v>
+        <v>99.72323865830114</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.3059434015812</v>
+        <v>90.20579272322226</v>
       </c>
       <c r="AD2" t="n">
-        <v>62461.33208123246</v>
+        <v>72884.0982596533</v>
       </c>
       <c r="AE2" t="n">
-        <v>85462.35015300156</v>
+        <v>99723.23865830114</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89441322465228e-06</v>
+        <v>1.341997926878788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>77305.9434015812</v>
+        <v>90205.79272322226</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.42415951617071</v>
+        <v>71.84692569459156</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.04324489266057</v>
+        <v>98.30413339796014</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.02227555555996</v>
+        <v>88.92212487720101</v>
       </c>
       <c r="AD3" t="n">
-        <v>61424.15951617071</v>
+        <v>71846.92569459155</v>
       </c>
       <c r="AE3" t="n">
-        <v>84043.24489266057</v>
+        <v>98304.13339796015</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.033964275228697e-06</v>
+        <v>1.36572068058295e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76022.27555555996</v>
+        <v>88922.12487720101</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.9849836700467</v>
+        <v>83.59321953975159</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2295186444372</v>
+        <v>114.3759308468111</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.56831546155919</v>
+        <v>103.4600525344481</v>
       </c>
       <c r="AD2" t="n">
-        <v>73984.9836700467</v>
+        <v>83593.21953975159</v>
       </c>
       <c r="AE2" t="n">
-        <v>101229.5186444372</v>
+        <v>114375.9308468111</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.325923693070901e-06</v>
+        <v>1.321037402476808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91568.31546155919</v>
+        <v>103460.0525344481</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.1911475959951</v>
+        <v>97.52399639435512</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3528218076586</v>
+        <v>133.4366343217698</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.01178056850384</v>
+        <v>120.7016292216282</v>
       </c>
       <c r="AD2" t="n">
-        <v>79191.14759599511</v>
+        <v>97523.99639435513</v>
       </c>
       <c r="AE2" t="n">
-        <v>108352.8218076586</v>
+        <v>133436.6343217698</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.634738660348477e-06</v>
+        <v>1.237830159417968e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.469444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>98011.78056850383</v>
+        <v>120701.6292216282</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.1855223321995</v>
+        <v>114.0339162791641</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6052750606213</v>
+        <v>156.0262350744139</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0450523180342</v>
+        <v>141.1353101831509</v>
       </c>
       <c r="AD2" t="n">
-        <v>96185.5223321995</v>
+        <v>114033.9162791641</v>
       </c>
       <c r="AE2" t="n">
-        <v>131605.2750606213</v>
+        <v>156026.2350744139</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.910210209155447e-06</v>
+        <v>1.136555340412308e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>119045.0523180342</v>
+        <v>141135.3101831509</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1889470680654</v>
+        <v>178.3098959723524</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.5998755978067</v>
+        <v>243.9714661466836</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.5959576460848</v>
+        <v>220.6871718338182</v>
       </c>
       <c r="AD2" t="n">
-        <v>153188.9470680654</v>
+        <v>178309.8959723524</v>
       </c>
       <c r="AE2" t="n">
-        <v>209599.8755978066</v>
+        <v>243971.4661466836</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015236078560308e-06</v>
+        <v>8.28182321074969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.363888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>189595.9576460848</v>
+        <v>220687.1718338182</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.44809965077627</v>
+        <v>82.18321073657914</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.44424495787779</v>
+        <v>112.4466945971133</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.28956614086923</v>
+        <v>101.7149398847208</v>
       </c>
       <c r="AD2" t="n">
-        <v>62448.09965077627</v>
+        <v>82183.21073657915</v>
       </c>
       <c r="AE2" t="n">
-        <v>85444.24495787779</v>
+        <v>112446.6945971133</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.680715556017584e-06</v>
+        <v>1.349471424477822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.781944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>77289.56614086922</v>
+        <v>101714.9398847208</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.3264431604639</v>
+        <v>82.06155424626678</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.27778918072691</v>
+        <v>112.2802388199624</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.13899666946743</v>
+        <v>101.564370413319</v>
       </c>
       <c r="AD3" t="n">
-        <v>62326.4431604639</v>
+        <v>82061.55424626678</v>
       </c>
       <c r="AE3" t="n">
-        <v>85277.78918072692</v>
+        <v>112280.2388199625</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.71533624636564e-06</v>
+        <v>1.355554143201052e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.769444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>77138.99666946744</v>
+        <v>101564.370413319</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.80676301479779</v>
+        <v>72.15001064178485</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.56673987875695</v>
+        <v>98.71882759387397</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.4958089149133</v>
+        <v>89.2972412410839</v>
       </c>
       <c r="AD2" t="n">
-        <v>61806.76301479779</v>
+        <v>72150.01064178484</v>
       </c>
       <c r="AE2" t="n">
-        <v>84566.73987875695</v>
+        <v>98718.82759387397</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.931015839940995e-06</v>
+        <v>1.356115323489498e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.597222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>76495.8089149133</v>
+        <v>89297.2412410839</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.54260919429005</v>
+        <v>71.8858568212771</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.20531296789437</v>
+        <v>98.35740068301136</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.16887608115748</v>
+        <v>88.97030840732806</v>
       </c>
       <c r="AD3" t="n">
-        <v>61542.60919429005</v>
+        <v>71885.85682127711</v>
       </c>
       <c r="AE3" t="n">
-        <v>84205.31296789437</v>
+        <v>98357.40068301136</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.977128983320411e-06</v>
+        <v>1.364000157111462e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.581944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>76168.87608115748</v>
+        <v>88970.30840732806</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.9493799490211</v>
+        <v>255.5536814281852</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.1032245434884</v>
+        <v>349.659821162608</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.0344255696127</v>
+        <v>316.2887785815943</v>
       </c>
       <c r="AD2" t="n">
-        <v>214949.3799490211</v>
+        <v>255553.6814281852</v>
       </c>
       <c r="AE2" t="n">
-        <v>294103.2245434884</v>
+        <v>349659.821162608</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978828857313217e-06</v>
+        <v>6.385002261380103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.883333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>266034.4255696126</v>
+        <v>316288.7785815943</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.96025798155313</v>
+        <v>86.33859146518343</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.300420217277</v>
+        <v>118.1322698324464</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.25069590183472</v>
+        <v>106.8578917993504</v>
       </c>
       <c r="AD2" t="n">
-        <v>76960.25798155312</v>
+        <v>86338.59146518343</v>
       </c>
       <c r="AE2" t="n">
-        <v>105300.420217277</v>
+        <v>118132.2698324464</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.899740811406158e-06</v>
+        <v>1.271230695471976e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>95250.69590183471</v>
+        <v>106857.8917993504</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.39365933966889</v>
+        <v>82.73584696690175</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.73800143936938</v>
+        <v>113.2028358680301</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.45984831956632</v>
+        <v>102.3989160939925</v>
       </c>
       <c r="AD2" t="n">
-        <v>63393.65933966888</v>
+        <v>82735.84696690175</v>
       </c>
       <c r="AE2" t="n">
-        <v>86738.00143936939</v>
+        <v>113202.8358680301</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.471063187408086e-06</v>
+        <v>1.334650915895907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.922222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>78459.84831956631</v>
+        <v>102398.9160939925</v>
       </c>
     </row>
   </sheetData>
